--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,17 +498,9 @@
         <v>hello@zeltamedia.com</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>clicktap</v>
-      </c>
-      <c r="B13" t="str">
-        <v>inquiry@clicktap.ae</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,41 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\scarping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A150BC-F288-45E4-BF2B-6B73BE20AF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Media Agencies" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+  <si>
+    <t>agencyName</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>prism-me</t>
+  </si>
+  <si>
+    <t>https://www.prism-me.com/</t>
+  </si>
+  <si>
+    <t>info@prism-me.com</t>
+  </si>
+  <si>
+    <t>scarletmedia</t>
+  </si>
+  <si>
+    <t>http://www.scarletmedia.net/</t>
+  </si>
+  <si>
+    <t>mail@scarletmedia.net</t>
+  </si>
+  <si>
+    <t>scratchcom</t>
+  </si>
+  <si>
+    <t>http://www.scratchcom.com/</t>
+  </si>
+  <si>
+    <t>info@scratchcom.com</t>
+  </si>
+  <si>
+    <t>volgatigris</t>
+  </si>
+  <si>
+    <t>https://www.volgatigris.com/</t>
+  </si>
+  <si>
+    <t>info@volgatigris.com</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>http://www.hop.rocks/</t>
+  </si>
+  <si>
+    <t>info@hop.rocks</t>
+  </si>
+  <si>
+    <t>com/</t>
+  </si>
+  <si>
+    <t>https://theglimpseproject.com/</t>
+  </si>
+  <si>
+    <t>hello@theglimpseproject.com</t>
+  </si>
+  <si>
+    <t>https://edsfze.com/</t>
+  </si>
+  <si>
+    <t>info@edsfze.com, jobs@edsfze.com, accounts@edsfze.com</t>
+  </si>
+  <si>
+    <t>https://leadsdubai.com/</t>
+  </si>
+  <si>
+    <t>leads@leadsdubai.com, Leads@leadsdubai.com</t>
+  </si>
+  <si>
+    <t>https://enhmedia.com/</t>
+  </si>
+  <si>
+    <t>info@enhmedia.com</t>
+  </si>
+  <si>
+    <t>7gmedia</t>
+  </si>
+  <si>
+    <t>http://www.7gmedia.com/</t>
+  </si>
+  <si>
+    <t>info@7gmedia.com</t>
+  </si>
+  <si>
+    <t>prismads</t>
+  </si>
+  <si>
+    <t>https://www.prismads.com/</t>
+  </si>
+  <si>
+    <t>info@prismads.com</t>
+  </si>
+  <si>
+    <t>https://legend1st.com/</t>
+  </si>
+  <si>
+    <t>info@legend1st.com</t>
+  </si>
+  <si>
+    <t>houseofyugen</t>
+  </si>
+  <si>
+    <t>http://www.houseofyugen.com/</t>
+  </si>
+  <si>
+    <t>info@yugen.com, info@yugenpr.com</t>
+  </si>
+  <si>
+    <t>socializeagency</t>
+  </si>
+  <si>
+    <t>https://www.socializeagency.com/</t>
+  </si>
+  <si>
+    <t>hello@socialize.ae</t>
+  </si>
+  <si>
+    <t>https://kingsmenagency.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@kingsmenagency.com</t>
+  </si>
+  <si>
+    <t>https://zeltamedia.com/</t>
+  </si>
+  <si>
+    <t>hello@zeltamedia.com</t>
+  </si>
+  <si>
+    <t>clicktap</t>
+  </si>
+  <si>
+    <t>https://www.clicktap.ae/</t>
+  </si>
+  <si>
+    <t>inquiry@clicktap.ae</t>
+  </si>
+  <si>
+    <t>themedialinks</t>
+  </si>
+  <si>
+    <t>https://www.themedialinks.com/</t>
+  </si>
+  <si>
+    <t>hello@themedialinks.com</t>
+  </si>
+  <si>
+    <t>panamedia</t>
+  </si>
+  <si>
+    <t>https://www.panamedia.me/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +218,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,111 +557,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>agencyName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>emails</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>prism-me</v>
-      </c>
-      <c r="B2" t="str">
-        <v>info@prism-me.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>scratchcom</v>
-      </c>
-      <c r="B3" t="str">
-        <v>info@scratchcom.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>volgatigris</v>
-      </c>
-      <c r="B4" t="str">
-        <v>info@volgatigris.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>hop</v>
-      </c>
-      <c r="B5" t="str">
-        <v>info@hop.rocks</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>com/</v>
-      </c>
-      <c r="B6" t="str">
-        <v>info@enhmedia.com</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>7gmedia</v>
-      </c>
-      <c r="B7" t="str">
-        <v>info@7gmedia.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>prismads</v>
-      </c>
-      <c r="B8" t="str">
-        <v>info@prismads.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>com/</v>
-      </c>
-      <c r="B9" t="str">
-        <v>info@legend1st.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>houseofyugen</v>
-      </c>
-      <c r="B10" t="str">
-        <v>info@yugen.com, info@yugenpr.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>socializeagency</v>
-      </c>
-      <c r="B11" t="str">
-        <v>hello@socialize.ae</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>com/</v>
-      </c>
-      <c r="B12" t="str">
-        <v>hello@zeltamedia.com</v>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
+    <ignoredError sqref="A1:C20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>